--- a/hebrewOutputs/hebrewComparison_10.xlsx
+++ b/hebrewOutputs/hebrewComparison_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="149">
   <si>
     <t>Sentence</t>
   </si>
@@ -46,255 +46,252 @@
     <t>checks</t>
   </si>
   <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>כן. אא הוא בסדר.</t>
+  </si>
+  <si>
+    <t>r/o</t>
+  </si>
+  <si>
+    <t>אוקיי.</t>
+  </si>
+  <si>
     <t>bc</t>
   </si>
   <si>
-    <t>כן. אא הוא בסדר.</t>
-  </si>
-  <si>
-    <t>r/o</t>
-  </si>
-  <si>
-    <t>אוקיי.</t>
-  </si>
-  <si>
     <t>כן. אא אני רק רוצה שתספר לי אא על הדברים שקדמו ל... לזמן שהבאת אותו לפה.</t>
   </si>
   <si>
     <t>?med</t>
   </si>
   <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>מה שקורה שבערך כמה זמן זה, שלושה שבועות שבועיים שלושה, היו לו לפני.. שבועיים זה היה, הוא אא התלוננו בגן שהוא... הוא היה מאד עייף הוא נרדם באמצע היום שזה בדרך כלל לא קורה לו הוא מלא מרץ.</t>
+  </si>
+  <si>
+    <t>אהמ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ואחר כך כאילו מאז הוא לא כל כך חזר לעצמו. </t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">היו גם המון וירוסים בתקופה הזאת בגן </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ואשתי היא קצת היסטרית </t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">והיום זה קרה עוד פעם כאילו הוא בגן הקיא, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אז תקשיבו הוא כבר כמה ימים ככה תביאו אותו וכזה </t>
+  </si>
+  <si>
+    <t>אמרנו נביא אותו לפה רק לשמוע שהכל בסדר וכאילו זה סרט כזה שאתה מכיר עכשיו וירוס,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ואחרי שהוא חזר הביתה הוא הקיא והיה היום בבית והיה לו כאבי בטן </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(לא נשמע) וירוס, (לא נשמע) וירוס. </t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t>הם כולם בתוך הלופ כזה.</t>
+  </si>
+  <si>
+    <t>ואשתך נמצאת פה? בקרבת מקום?</t>
+  </si>
+  <si>
+    <t>[?]other</t>
+  </si>
+  <si>
+    <t>לא. אשתי לא פה היא הייתה פשוט בפגישה חשובה בעבודה ואמרתי לה שאני אעדכן אותה</t>
+  </si>
+  <si>
+    <t>ומי נמצא איתו בדרך כלל?</t>
+  </si>
+  <si>
+    <t>?l/s</t>
+  </si>
+  <si>
+    <t>אא אנחנו. מה בבית אתה מתכוון או?</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>כן.</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>כן שנינו.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שניכם ביחד. אוקיי. </t>
+  </si>
+  <si>
+    <t>אא אז ככה, אנחנו עשינו בדיקות אא,</t>
+  </si>
+  <si>
+    <t>ש... מאשרות שיואב בעצם סובל אא ממשהו שהוא די נפוץ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אא זה אומנם זה משהו שהוא יצטרך לחיות עם זה כל החיים אבל זה לא משהו שאמור להגביל אותו יותר מידי וזה משהו שהוא דיי נפוץ. </t>
+  </si>
+  <si>
+    <t>עכשיו אני הייתי רוצה לדעת אם פשוט אתה רוצה שאשתך תהיה נוכחת בזמן הזה או ש...</t>
+  </si>
+  <si>
+    <t>?opinion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא לא לא </t>
+  </si>
+  <si>
+    <t>תסביר לי קודם ...</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בעיקרון אני רוצה לדעת אם במשפחה אם שמעת פעם על המושג סכרת נעורים? </t>
+  </si>
+  <si>
+    <t>אם יש מישהו במשפחה שהיה אולי סובל מזה?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה משהו שיש לו? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אא זה מה שאנחנו אא מה שהבדיקות אישרו שכנראה רוב הסיכויים שיש לו. כן. </t>
+  </si>
+  <si>
+    <t>אא...</t>
+  </si>
+  <si>
+    <t>אתה שמעת על המושג הזה פעם?</t>
+  </si>
+  <si>
+    <t>דבר ראשון אני רוצה להרגיע אותך, זה משהו שהוא דיי נפוץ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אוקיי. אא אוקיי זה נורא מוזר כי לא... גם לא... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> כאילו זה בטוח? מה זה בדיקת דם עשיתם?</t>
+  </si>
+  <si>
+    <t>אא עשו כמה בדיקות אא שמאשרות את זה באופן דיי וודאי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אוקיי. </t>
+  </si>
+  <si>
+    <t>אני רוצה...</t>
+  </si>
+  <si>
+    <t>מה זאת אומרת די ודאי?</t>
+  </si>
+  <si>
+    <t>?bid</t>
+  </si>
+  <si>
+    <t>דבר ראשון רגע בוא נחכה שנייה, אא לגבי מידת האמינות של הבדיקות</t>
+  </si>
+  <si>
+    <t>למה אתם (לא נשמע) לוקחים עדיין?</t>
+  </si>
+  <si>
+    <t>הוא לא יודע כלום כמובן אנחנו מדברים הוא בן חמש אחרי הכל.</t>
+  </si>
+  <si>
+    <t>לא. אני לא רוצה שמישהו יגיד לו משהו...</t>
+  </si>
+  <si>
+    <t>?service</t>
+  </si>
+  <si>
+    <t>לא לא לא לא.</t>
+  </si>
+  <si>
+    <t>אנחנו (לא נשמע) לכם אחר כך.</t>
+  </si>
+  <si>
+    <t>אני מעדיף שאשתך תהיה פה אולי שברגע ש... ש...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא, ברור. ברור. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">רגע אני צריך שנייה מנסה להבין איך אא </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אני יודע ממה שאני יודע זה משהו גנטי. </t>
+  </si>
+  <si>
+    <t>אין לנו מישהו במשפחה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אז בדיקה ש... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא, אצלי בטוח לא, גם לא אצל אשתי כאילו לא... </t>
+  </si>
+  <si>
+    <t>אתה עשית את הבדיקה? או ...</t>
+  </si>
+  <si>
+    <t>?reassure</t>
+  </si>
+  <si>
+    <t>אני חלק מהצוות ש... ש...</t>
+  </si>
+  <si>
+    <t>(לא נשמע) פה לא?</t>
+  </si>
+  <si>
+    <t>אוקיי גם רופא כאילו רופא מומחה הוא ראה את זה? כי...</t>
+  </si>
+  <si>
+    <t>כן כן. בוודאי. זה לא אני לא יכול לבוא ולדווח לך על דברים כאלה...</t>
+  </si>
+  <si>
+    <t>אבל זה יכול... עוד פעם את הבדיקה הזאת? כי לפעמים אני יודע ש... יש טעויות כאלה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> זה לא נראה לי הגיוני שהוא,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שהוא נמצא ב... לא יודע כאילו למה שיהיה לו כאילו למה שיהיה לו סכרת עכשיו? </t>
+  </si>
+  <si>
+    <t>אא אנחנו עשינו כמה בדיקות זה לא רק לפי בדיקה אחת. אני לא אבוא ואבשר לכם לפי בדיקה אחת.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אבל אני רוצה שתדע שזה לא משהו ש... ש... ישנה את אורח חיים בצורה משמעותית. </t>
+  </si>
+  <si>
     <t>gives-l/s</t>
   </si>
   <si>
-    <t>מה שקורה שבערך כמה זמן זה, שלושה שבועות שבועיים שלושה, היו לו לפני.. שבועיים זה היה, הוא אא התלוננו בגן שהוא... הוא היה מאד עייף הוא נרדם באמצע היום שזה בדרך כלל לא קורה לו הוא מלא מרץ.</t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>אהמ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ואחר כך כאילו מאז הוא לא כל כך חזר לעצמו. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">היו גם המון וירוסים בתקופה הזאת בגן </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ואשתי היא קצת היסטרית </t>
-  </si>
-  <si>
-    <t>crit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">והיום זה קרה עוד פעם כאילו הוא בגן הקיא, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אז תקשיבו הוא כבר כמה ימים ככה תביאו אותו וכזה </t>
-  </si>
-  <si>
-    <t>אמרנו נביא אותו לפה רק לשמוע שהכל בסדר וכאילו זה סרט כזה שאתה מכיר עכשיו וירוס,</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ואחרי שהוא חזר הביתה הוא הקיא והיה היום בבית והיה לו כאבי בטן </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(לא נשמע) וירוס, (לא נשמע) וירוס. </t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t>הם כולם בתוך הלופ כזה.</t>
-  </si>
-  <si>
-    <t>concern</t>
-  </si>
-  <si>
-    <t>ואשתך נמצאת פה? בקרבת מקום?</t>
-  </si>
-  <si>
-    <t>[?]other</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t>לא. אשתי לא פה היא הייתה פשוט בפגישה חשובה בעבודה ואמרתי לה שאני אעדכן אותה</t>
-  </si>
-  <si>
-    <t>ומי נמצא איתו בדרך כלל?</t>
-  </si>
-  <si>
-    <t>?l/s</t>
-  </si>
-  <si>
-    <t>partner</t>
-  </si>
-  <si>
-    <t>אא אנחנו. מה בבית אתה מתכוון או?</t>
-  </si>
-  <si>
-    <t>כן.</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>כן שנינו.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שניכם ביחד. אוקיי. </t>
-  </si>
-  <si>
-    <t>אא אז ככה, אנחנו עשינו בדיקות אא,</t>
-  </si>
-  <si>
-    <t>ש... מאשרות שיואב בעצם סובל אא ממשהו שהוא די נפוץ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אא זה אומנם זה משהו שהוא יצטרך לחיות עם זה כל החיים אבל זה לא משהו שאמור להגביל אותו יותר מידי וזה משהו שהוא דיי נפוץ. </t>
-  </si>
-  <si>
-    <t>עכשיו אני הייתי רוצה לדעת אם פשוט אתה רוצה שאשתך תהיה נוכחת בזמן הזה או ש...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא לא לא </t>
-  </si>
-  <si>
-    <t>תסביר לי קודם ...</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בעיקרון אני רוצה לדעת אם במשפחה אם שמעת פעם על המושג סכרת נעורים? </t>
-  </si>
-  <si>
-    <t>אם יש מישהו במשפחה שהיה אולי סובל מזה?</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה משהו שיש לו? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אא זה מה שאנחנו אא מה שהבדיקות אישרו שכנראה רוב הסיכויים שיש לו. כן. </t>
-  </si>
-  <si>
-    <t>אא...</t>
-  </si>
-  <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>אתה שמעת על המושג הזה פעם?</t>
-  </si>
-  <si>
-    <t>דבר ראשון אני רוצה להרגיע אותך, זה משהו שהוא דיי נפוץ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אוקיי. אא אוקיי זה נורא מוזר כי לא... גם לא... </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> כאילו זה בטוח? מה זה בדיקת דם עשיתם?</t>
-  </si>
-  <si>
-    <t>אא עשו כמה בדיקות אא שמאשרות את זה באופן דיי וודאי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אוקיי. </t>
-  </si>
-  <si>
-    <t>אני רוצה...</t>
-  </si>
-  <si>
-    <t>מה זאת אומרת די ודאי?</t>
-  </si>
-  <si>
-    <t>?bid</t>
-  </si>
-  <si>
-    <t>דבר ראשון רגע בוא נחכה שנייה, אא לגבי מידת האמינות של הבדיקות</t>
-  </si>
-  <si>
-    <t>למה אתם (לא נשמע) לוקחים עדיין?</t>
-  </si>
-  <si>
-    <t>הוא לא יודע כלום כמובן אנחנו מדברים הוא בן חמש אחרי הכל.</t>
-  </si>
-  <si>
-    <t>לא. אני לא רוצה שמישהו יגיד לו משהו...</t>
-  </si>
-  <si>
-    <t>?service</t>
-  </si>
-  <si>
-    <t>לא לא לא לא.</t>
-  </si>
-  <si>
-    <t>אנחנו (לא נשמע) לכם אחר כך.</t>
-  </si>
-  <si>
-    <t>אני מעדיף שאשתך תהיה פה אולי שברגע ש... ש...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא, ברור. ברור. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">רגע אני צריך שנייה מנסה להבין איך אא </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אני יודע ממה שאני יודע זה משהו גנטי. </t>
-  </si>
-  <si>
-    <t>אין לנו מישהו במשפחה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אז בדיקה ש... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא, אצלי בטוח לא, גם לא אצל אשתי כאילו לא... </t>
-  </si>
-  <si>
-    <t>אתה עשית את הבדיקה? או ...</t>
-  </si>
-  <si>
-    <t>?reassure</t>
-  </si>
-  <si>
-    <t>אני חלק מהצוות ש... ש...</t>
-  </si>
-  <si>
-    <t>(לא נשמע) פה לא?</t>
-  </si>
-  <si>
-    <t>אוקיי גם רופא כאילו רופא מומחה הוא ראה את זה? כי...</t>
-  </si>
-  <si>
-    <t>כן כן. בוודאי. זה לא אני לא יכול לבוא ולדווח לך על דברים כאלה...</t>
-  </si>
-  <si>
-    <t>אבל זה יכול... עוד פעם את הבדיקה הזאת? כי לפעמים אני יודע ש... יש טעויות כאלה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> זה לא נראה לי הגיוני שהוא,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שהוא נמצא ב... לא יודע כאילו למה שיהיה לו כאילו למה שיהיה לו סכרת עכשיו? </t>
-  </si>
-  <si>
-    <t>אא אנחנו עשינו כמה בדיקות זה לא רק לפי בדיקה אחת. אני לא אבוא ואבשר לכם לפי בדיקה אחת.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אבל אני רוצה שתדע שזה לא משהו ש... ש... ישנה את אורח חיים בצורה משמעותית. </t>
-  </si>
-  <si>
     <t xml:space="preserve">אא אמנם אתם תצטרכו להיות יותר זהירים ולהקפיד יותר על אורך הטיפול </t>
   </si>
   <si>
@@ -304,28 +301,28 @@
     <t>ואני גם רוצה שתדע שיש הרבה קבוצות תמיכה וכולנו פה בשבילכם בשביל להסביר לכם איך מתמודדים עם זה ביום יום ואיך להגיע למצב שזה יגביל אותו כמה שיותר פחות.</t>
   </si>
   <si>
+    <t>תגיד, סליחה שאני שואל.</t>
+  </si>
+  <si>
+    <t>אין בעיה כן.</t>
+  </si>
+  <si>
+    <t>זה יכול להיות שזה קשור לזה שנתנו לו הרבה דברים במתיקה כאילו?</t>
+  </si>
+  <si>
+    <t>זה לא קשור אליכם בכלל זה איזשהו...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">... לא. אבל רמת הסוכר שלו יכול להיות שהייתה גבוה בגלל שהוא אכל בדרך שהוא אכל גם גלידה ואחר כך הוא ביקש שנקנה לו פה למטה... זה לא יכול </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אין לזה שום קשר למה שהוא אכל או משהו שאתם עשיתם. </t>
+  </si>
+  <si>
+    <t>זה לא היה באחריותכם. אתם פעלתם...</t>
+  </si>
+  <si>
     <t>approve</t>
-  </si>
-  <si>
-    <t>תגיד, סליחה שאני שואל.</t>
-  </si>
-  <si>
-    <t>אין בעיה כן.</t>
-  </si>
-  <si>
-    <t>זה יכול להיות שזה קשור לזה שנתנו לו הרבה דברים במתיקה כאילו?</t>
-  </si>
-  <si>
-    <t>זה לא קשור אליכם בכלל זה איזשהו...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">... לא. אבל רמת הסוכר שלו יכול להיות שהייתה גבוה בגלל שהוא אכל בדרך שהוא אכל גם גלידה ואחר כך הוא ביקש שנקנה לו פה למטה... זה לא יכול </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אין לזה שום קשר למה שהוא אכל או משהו שאתם עשיתם. </t>
-  </si>
-  <si>
-    <t>זה לא היה באחריותכם. אתם פעלתם...</t>
   </si>
   <si>
     <t xml:space="preserve">... כנראה, </t>
@@ -872,32 +869,32 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -905,10 +902,10 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -919,34 +916,34 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -957,24 +954,24 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -993,10 +990,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1015,84 +1012,84 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1100,7 +1097,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1114,21 +1111,21 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1136,40 +1133,40 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1177,13 +1174,13 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
         <v>50</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1191,10 +1188,10 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1202,26 +1199,26 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1232,29 +1229,29 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -1265,29 +1262,29 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1298,46 +1295,46 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1345,29 +1342,29 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -1375,21 +1372,21 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1400,15 +1397,15 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
         <v>30</v>
@@ -1419,51 +1416,51 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1474,13 +1471,13 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1488,21 +1485,21 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1510,37 +1507,37 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
         <v>30</v>
@@ -1551,84 +1548,84 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -1639,10 +1636,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -1650,10 +1647,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
         <v>93</v>
-      </c>
-      <c r="B78" t="s">
-        <v>94</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -1661,51 +1658,51 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C80" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -1716,18 +1713,18 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -1738,40 +1735,40 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B86" t="s">
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -1782,29 +1779,29 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B90" t="s">
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -1815,7 +1812,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B93" t="s">
         <v>9</v>
@@ -1826,7 +1823,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -1837,29 +1834,29 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
@@ -1870,40 +1867,40 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
@@ -1914,10 +1911,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" t="s">
         <v>119</v>
-      </c>
-      <c r="B102" t="s">
-        <v>120</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -1925,7 +1922,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
         <v>12</v>
@@ -1936,10 +1933,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -1947,98 +1944,98 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C107" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" t="s">
         <v>129</v>
       </c>
-      <c r="B111" t="s">
-        <v>130</v>
-      </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -2046,40 +2043,40 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B114" t="s">
         <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B116" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -2090,29 +2087,29 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B119" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B120" t="s">
         <v>30</v>
@@ -2123,7 +2120,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -2134,65 +2131,65 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C122" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B123" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B124" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B125" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" t="s">
         <v>144</v>
       </c>
-      <c r="B126" t="s">
-        <v>145</v>
-      </c>
       <c r="C126" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
@@ -2200,21 +2197,21 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" t="s">
         <v>147</v>
       </c>
-      <c r="B128" t="s">
-        <v>148</v>
-      </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
